--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -16,66 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>ENCODER_L</t>
+  </si>
+  <si>
+    <t>PA0,PA1</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>PA4,PA5,PA6,PA7</t>
+  </si>
+  <si>
+    <t>USART</t>
+  </si>
+  <si>
+    <t>PA2，PA3</t>
+  </si>
+  <si>
+    <t>PA9,PA10</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>PA8,PA11</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>SWD</t>
+  </si>
+  <si>
+    <t>PA13,PA14</t>
+  </si>
   <si>
     <t>IIC</t>
   </si>
   <si>
-    <t>PA0,PA1</t>
-  </si>
-  <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>PA4,PA5,PA6,PA7</t>
-  </si>
-  <si>
-    <t>USART</t>
-  </si>
-  <si>
-    <t>PA2，PA3</t>
-  </si>
-  <si>
-    <t>PA9,PA10</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>PA8,PA11</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>SWD</t>
-  </si>
-  <si>
-    <t>PA13,PA14</t>
-  </si>
-  <si>
-    <t>ENCODER</t>
-  </si>
-  <si>
     <t>PB0,PB1</t>
   </si>
   <si>
-    <t>PB3,PB4</t>
-  </si>
-  <si>
     <t>BOOT1</t>
   </si>
   <si>
     <t>PB2</t>
+  </si>
+  <si>
+    <t>ENCODER_R</t>
+  </si>
+  <si>
+    <t>PB6,PB7</t>
   </si>
   <si>
     <t>显示屏</t>
@@ -92,10 +95,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,6 +110,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,13 +140,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,9 +147,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,46 +169,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,56 +198,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +453,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,61 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +527,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,11 +1054,12 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
@@ -1119,38 +1123,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -16,75 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>PA0,PA1</t>
+  </si>
+  <si>
+    <t>USART</t>
+  </si>
+  <si>
+    <t>PA9,PA10</t>
+  </si>
+  <si>
+    <t>PA2，PA3</t>
+  </si>
+  <si>
+    <t>PB10,PB11</t>
+  </si>
+  <si>
+    <t>IIC</t>
+  </si>
+  <si>
+    <t>PA4,PA5</t>
+  </si>
   <si>
     <t>ENCODER_L</t>
   </si>
   <si>
-    <t>PA0,PA1</t>
+    <t>PA6,PA7</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>ENCODER_R</t>
+  </si>
+  <si>
+    <t>PB0,PB1</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PB8,PB9</t>
+  </si>
+  <si>
+    <t>SWD</t>
+  </si>
+  <si>
+    <t>PA13,PA14</t>
+  </si>
+  <si>
+    <t>BOOT1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>DIR_L</t>
+  </si>
+  <si>
+    <t>PB4,PB5</t>
+  </si>
+  <si>
+    <t>DIR_R</t>
+  </si>
+  <si>
+    <t>PB6,PB7</t>
   </si>
   <si>
     <t>SPI</t>
   </si>
   <si>
-    <t>PA4,PA5,PA6,PA7</t>
-  </si>
-  <si>
-    <t>USART</t>
-  </si>
-  <si>
-    <t>PA2，PA3</t>
-  </si>
-  <si>
-    <t>PA9,PA10</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>PA8,PA11</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>SWD</t>
-  </si>
-  <si>
-    <t>PA13,PA14</t>
-  </si>
-  <si>
-    <t>IIC</t>
-  </si>
-  <si>
-    <t>PB0,PB1</t>
-  </si>
-  <si>
-    <t>BOOT1</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>ENCODER_R</t>
-  </si>
-  <si>
-    <t>PB6,PB7</t>
+    <t>PB12,PB13,PB14,PB15</t>
   </si>
   <si>
     <t>显示屏</t>
-  </si>
-  <si>
-    <t>超声波模块</t>
   </si>
   <si>
     <t>无线模块</t>
@@ -95,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,7 +142,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +163,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -147,7 +195,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,30 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,47 +242,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,37 +286,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,145 +442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +477,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,82 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -760,6 +784,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1051,17 +1080,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1072,94 +1102,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>PWM</t>
   </si>
@@ -66,46 +66,49 @@
     <t>PA12</t>
   </si>
   <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PB8,PB9</t>
+  </si>
+  <si>
+    <t>SWD</t>
+  </si>
+  <si>
+    <t>PA13,PA14</t>
+  </si>
+  <si>
+    <t>BOOT1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>DIR_L</t>
+  </si>
+  <si>
+    <t>PB4,PB5</t>
+  </si>
+  <si>
+    <t>DIR_R</t>
+  </si>
+  <si>
+    <t>PB6,PB7</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>PB12,PB13,PB14,PB15</t>
+  </si>
+  <si>
+    <t>MPU6050INT</t>
+  </si>
+  <si>
     <t>PB3</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>PB8,PB9</t>
-  </si>
-  <si>
-    <t>SWD</t>
-  </si>
-  <si>
-    <t>PA13,PA14</t>
-  </si>
-  <si>
-    <t>BOOT1</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>DIR_L</t>
-  </si>
-  <si>
-    <t>PB4,PB5</t>
-  </si>
-  <si>
-    <t>DIR_R</t>
-  </si>
-  <si>
-    <t>PB6,PB7</t>
-  </si>
-  <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>PB12,PB13,PB14,PB15</t>
   </si>
   <si>
     <t>显示屏</t>
@@ -119,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,9 +137,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,122 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,12 +289,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,109 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,54 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,45 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,26 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +521,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1146,76 +1149,81 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,88 +137,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -256,19 +265,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,84 +289,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,78 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,21 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,11 +498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,26 +557,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A10" sqref="A10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1176,43 +1176,43 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
         <v>30</v>
       </c>
     </row>
